--- a/trend_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
+++ b/trend_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.277133918162159</v>
+        <v>0.722866081837841</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.781776473315651</v>
+        <v>0.218223526684349</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0649810837447159</v>
+        <v>0.935018916255284</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.181082958676691</v>
+        <v>0.818917041323309</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.871827138033399</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0074074074074074</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.348148148148148</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0127575969263011</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0314328743545611</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8505064617534061</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.061989514103189</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.879310344827586</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.815</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0259893267651888</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0503073040738335</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.527733306147141e-05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.264791918137431</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.77516274250921e-06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0014955641492265</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.001003434065934</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0019951908745013</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.75216980471758</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.025091240116011</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0057142857142857</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.771428571428571</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>550</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.9352035196307</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.46857088861703</v>
+      </c>
+      <c r="M31" t="n">
+        <v>28.8378584078653</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.89730973084195</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.736964180923749</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.397590361445783</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.58433734939759</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0125406879421804</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0484533810584246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.143790849673203</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.150326797385621</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001393412076163</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0002722360248447</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.32235346027221</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6179549957955049</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0705128205128205</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9197</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0123182062389696</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0052500062071327</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999988867425498</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.587209302325581</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0334673052894628</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0203306530882488</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0459876188379838</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.449225574355205</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.713633717231575</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0171428571428571</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.925714285714286</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0016928162486368</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0123366012948533</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0041945550146306</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.161067197777056</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.682559984856524</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8114285714285711</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0028615009371703</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0158624822464699</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0102434824598305</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.202943328877326</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>8.81688978279629e-06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.594285714285714</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0021990968801313</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0014191875065116</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0031618699899272</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.49062996846248</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.738608769507487</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.85632183908046</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0232027527792483</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.07813772016650861</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0379002316270162</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.691587266147489</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
+++ b/trend_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.756630026259189</v>
+        <v>0.137497872373145</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.481481481481481</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.615</v>
+        <v>1.64</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0316233766233767</v>
+        <v>-0.0724702380952381</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0526295836811846</v>
+        <v>-0.240824175824176</v>
       </c>
       <c r="M2" t="n">
-        <v>0.13529045297677</v>
+        <v>0.0307550576732429</v>
       </c>
       <c r="N2" t="n">
-        <v>1.95810381568896</v>
+        <v>-4.41891695702671</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.722866081837841</v>
+        <v>0.976730209576497</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.65</v>
+        <v>9.744999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0462947989510488</v>
+        <v>0.097582762632105</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0844067761051762</v>
+        <v>0.012828011916656</v>
       </c>
       <c r="M3" t="n">
-        <v>0.145710402091521</v>
+        <v>0.170932622120542</v>
       </c>
       <c r="N3" t="n">
-        <v>0.479738849233667</v>
+        <v>1.00136236667116</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.170242790765669</v>
+        <v>0.904783284765312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.677966101694915</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009986558084772001</v>
+        <v>-0.0019089721254355</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0006024503949235</v>
+        <v>-0.0049755358536867</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0039460988789856</v>
+        <v>0.0003558450888018</v>
       </c>
       <c r="N4" t="n">
-        <v>2.69906975264118</v>
+        <v>-6.36324041811847</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.539084110955904</v>
+        <v>0.885616323651192</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.779661016949153</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>740</v>
+        <v>689</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.05196629213483</v>
+        <v>-59.0700808625337</v>
       </c>
       <c r="L5" t="n">
-        <v>-98.7987870330528</v>
+        <v>-152.82787659161</v>
       </c>
       <c r="M5" t="n">
-        <v>113.838797164086</v>
+        <v>20.0970609517731</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.277292742180383</v>
+        <v>-8.573306366115199</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.80707344671245</v>
+        <v>0.947215981690411</v>
       </c>
       <c r="G6" t="n">
-        <v>0.346153846153846</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.653846153846154</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0159517828113753</v>
+        <v>0.0141342896051483</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0009369495584218</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0033028882880633</v>
+        <v>-0.0036586442424996</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-6.6289115661008</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.96528057264158</v>
+        <v>0.98339378043181</v>
       </c>
       <c r="G7" t="n">
         <v>0.0677966101694915</v>
       </c>
       <c r="H7" t="n">
-        <v>0.271186440677966</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0006286574870912</v>
+        <v>-0.0005550911854103</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0011343167701863</v>
+        <v>-0.0009235145385587</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-10.4776247848537</v>
+        <v>-11.1018237082067</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.807382072798153</v>
+        <v>0.041230749793399</v>
       </c>
       <c r="G8" t="n">
         <v>0.0338983050847458</v>
       </c>
       <c r="H8" t="n">
-        <v>0.915254237288136</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.974</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0647214972527472</v>
+        <v>0.123836702392258</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.146630158080283</v>
+        <v>0.0006319609031852</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0112278775190365</v>
+        <v>0.219345686977281</v>
       </c>
       <c r="N8" t="n">
-        <v>-6.64491758241758</v>
+        <v>11.6827077728545</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.218223526684349</v>
+        <v>0.0044342468495619</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0254216900283242</v>
+        <v>-0.08110973178520681</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078062795366463</v>
+        <v>-0.12637592796629</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0240556607145353</v>
+        <v>-0.0304475776055723</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.3362657411154</v>
+        <v>-1.08146309046942</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.807382072798153</v>
+        <v>0.0355984446376258</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9830508474576271</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.084</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0660647285329226</v>
+        <v>0.111645217346198</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.14226624410446</v>
+        <v>0.0031053535631452</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0075690504590238</v>
+        <v>0.216269679940277</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.09453215248364</v>
+        <v>10.1495652132907</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.615311548220896</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.135593220338983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.322033898305085</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.140185641564318</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.413884339488583</v>
+        <v>-0.0356467526869699</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.188403736317151</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>9.47200280839987</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.807382072798153</v>
+        <v>0.625710958390952</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.88135593220339</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.44</v>
+        <v>0.074</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.09168319538741521</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.192122824868701</v>
+        <v>-0.0097276524269996</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0252295669724797</v>
+        <v>0.0037552200262159</v>
       </c>
       <c r="N12" t="n">
-        <v>-6.3668885685705</v>
+        <v>-1.35599198099198</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.086801451016721</v>
+        <v>0.0943133654803306</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.830508474576271</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.079</v>
+        <v>3.27</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0047603672985782</v>
+        <v>0.221363636363636</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0007932185974898</v>
+        <v>-0.0639141102557637</v>
       </c>
       <c r="M13" t="n">
-        <v>0.011452779680403</v>
+        <v>0.526910645861479</v>
       </c>
       <c r="N13" t="n">
-        <v>6.02578139060531</v>
+        <v>6.76953016402558</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.32354689613907</v>
+        <v>0.990743350239378</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.932203389830508</v>
+        <v>0.44578313253012</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.06</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0652232142857143</v>
+        <v>0.06311923963133639</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.193838812717605</v>
+        <v>0.0161143632691237</v>
       </c>
       <c r="M14" t="n">
-        <v>0.361135671510494</v>
+        <v>0.105767374517375</v>
       </c>
       <c r="N14" t="n">
-        <v>2.13147759103642</v>
+        <v>4.20794930875576</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9784203653172719</v>
+        <v>0.970808686569576</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.43956043956044</v>
+        <v>0.870689655172414</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>9.73</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0427693208430913</v>
+        <v>0.0350079872204471</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0029344171566801</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07987024395371969</v>
+        <v>0.0643107618136485</v>
       </c>
       <c r="N15" t="n">
-        <v>2.85128805620609</v>
+        <v>0.359794318812406</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.935018916255284</v>
+        <v>0.0007523612334363</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.896551724137931</v>
+        <v>0.547008547008547</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.65</v>
+        <v>0.027</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0401373626373627</v>
+        <v>0.0014955641492265</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0686368746382153</v>
+        <v>0.0023990147783251</v>
       </c>
       <c r="N16" t="n">
-        <v>0.415931219040028</v>
+        <v>5.53912647861692</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.012421501513e-06</v>
+        <v>0.10437210439089</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H17" t="n">
-        <v>0.564102564102564</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.028</v>
+        <v>570</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002484693877551</v>
+        <v>12.1694431766317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0016178941998689</v>
+        <v>-4.25303663448523</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0031587166055975</v>
+        <v>38.4962673428587</v>
       </c>
       <c r="N17" t="n">
-        <v>8.87390670553936</v>
+        <v>2.13499003098801</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0115027002456904</v>
+        <v>0.0071925396405302</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008547008547008499</v>
+        <v>0.486238532110092</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7435897435897439</v>
+        <v>0.513761467889908</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>590</v>
+        <v>0.0109878964747085</v>
       </c>
       <c r="K18" t="n">
-        <v>25.4651401230349</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5.99753694581281</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>54.7948917812619</v>
+        <v>0.0003939703127389</v>
       </c>
       <c r="N18" t="n">
-        <v>4.31612544458218</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,25 +2116,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0559112537527758</v>
+        <v>0.808633455557387</v>
       </c>
       <c r="G19" t="n">
-        <v>0.477064220183486</v>
+        <v>0.0854700854700855</v>
       </c>
       <c r="H19" t="n">
-        <v>0.522935779816514</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0111524659970674</v>
+        <v>0.006</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003328789541445</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.716737729520233</v>
+        <v>0.0295905880817332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0854700854700855</v>
+        <v>0.0683760683760684</v>
       </c>
       <c r="H20" t="n">
-        <v>0.196581196581197</v>
+        <v>0.863247863247863</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0132939035486806</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.000332347588717</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001216022010382</v>
+        <v>0.0401211002195622</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.25414184421515</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.127346468136112</v>
+        <v>0.414664675287951</v>
       </c>
       <c r="G21" t="n">
-        <v>0.094017094017094</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.846153846153846</v>
+        <v>0.6052631578947369</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8233</v>
+        <v>7.47</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0025017123287671</v>
+        <v>-0.0015346638655463</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0010182288539509</v>
+        <v>-0.0176424720559609</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0171076678904433</v>
+        <v>0.0120812880511531</v>
       </c>
       <c r="N21" t="n">
-        <v>0.303864002036575</v>
+        <v>-0.0205443623232439</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.818917041323309</v>
+        <v>0.0106517474895753</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H22" t="n">
-        <v>0.614035087719298</v>
+        <v>0.931623931623932</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.47</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008843825665859501</v>
+        <v>0.0180618131868132</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0075004152110094</v>
+        <v>0.0029994336085275</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0255649287759397</v>
+        <v>0.0420613714323955</v>
       </c>
       <c r="N22" t="n">
-        <v>0.118391240506821</v>
+        <v>1.64198301698302</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0903343602787956</v>
+        <v>0.181671650871494</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9145299145299149</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.88</v>
+        <v>1.51</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0065972906403941</v>
+        <v>0.0164774436090225</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0010085771871782</v>
+        <v>-0.0088576911611025</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0252516804372212</v>
+        <v>0.0450102692834322</v>
       </c>
       <c r="N23" t="n">
-        <v>0.749692118226604</v>
+        <v>1.09122143106109</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.906595600689</v>
+        <v>0.001495209605213</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0769230769230769</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.196581196581197</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0019877551020408</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.237455683429475</v>
+        <v>0.0008805295747428</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0031989129216106</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.8396501457726</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.334409002773836</v>
+        <v>0.139259651145687</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.888888888888889</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.41</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>0.008488380041011601</v>
+        <v>0.0588773306525407</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0134038283901258</v>
+        <v>-0.0334428359197997</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0276571678049526</v>
+        <v>0.158288978062393</v>
       </c>
       <c r="N25" t="n">
-        <v>0.602012768866072</v>
+        <v>1.86912160801717</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.411659911191074</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.007874015748031499</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.346456692913386</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0002801528469704</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
-        <v>0.07099999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0023338658146964</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001422006533514</v>
+        <v>-0.0288950288323456</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0044035280798141</v>
+        <v>0.0174478603877057</v>
       </c>
       <c r="N26" t="n">
-        <v>3.28713495027674</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.813393841762507</v>
+        <v>0.494042097298487</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.905982905982906</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.27</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0570052214502822</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.175546966821181</v>
+        <v>-0.0261811321931144</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0495508677902039</v>
+        <v>0.02210177462693</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.74327894343371</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.871827138033399</v>
+        <v>1.58536031015384e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0074074074074074</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.348148148148148</v>
+        <v>0.411428571428571</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>0.025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0127575969263011</v>
+        <v>0.001497949419002</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0010812078358096</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0314328743545611</v>
+        <v>0.0019972658920027</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8505064617534061</v>
+        <v>5.9917976760082</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.061989514103189</v>
+        <v>0.224602864241227</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H29" t="n">
-        <v>0.879310344827586</v>
+        <v>0.76</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>9.815</v>
+        <v>554</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0259893267651888</v>
+        <v>5.60171283710039</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0503073040738335</v>
+        <v>-5.00798442307491</v>
       </c>
       <c r="M29" t="n">
-        <v>7.527733306147141e-05</v>
+        <v>20.9324603749331</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.264791918137431</v>
+        <v>1.01113950128166</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.77516274250921e-06</v>
+        <v>0.707474135824239</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.409638554216867</v>
       </c>
       <c r="H30" t="n">
-        <v>0.434285714285714</v>
+        <v>0.5783132530120479</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.026</v>
+        <v>0.0120345974927957</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0014955641492265</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0019951908745013</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>5.75216980471758</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.025091240116011</v>
+        <v>0.111176325338339</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0057142857142857</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.771428571428571</v>
+        <v>0.139393939393939</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>550</v>
+        <v>0.005</v>
       </c>
       <c r="K31" t="n">
-        <v>15.9352035196307</v>
+        <v>9.090343454454949e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>2.46857088861703</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>28.8378584078653</v>
+        <v>0.0001991548527808</v>
       </c>
       <c r="N31" t="n">
-        <v>2.89730973084195</v>
+        <v>1.81806869089099</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.736964180923749</v>
+        <v>0.131038782633689</v>
       </c>
       <c r="G32" t="n">
-        <v>0.397590361445783</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H32" t="n">
-        <v>0.58433734939759</v>
+        <v>0.842424242424242</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0125406879421804</v>
+        <v>0.974</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0045010269283432</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0018197363196736</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0172861096749748</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.462117754450023</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0484533810584246</v>
+        <v>0.993892185415876</v>
       </c>
       <c r="G33" t="n">
-        <v>0.143790849673203</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.150326797385621</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006</v>
+        <v>7.45</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001393412076163</v>
+        <v>0.0160549450549449</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0055325946412789</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002722360248447</v>
+        <v>0.0288098254398229</v>
       </c>
       <c r="N33" t="n">
-        <v>2.32235346027221</v>
+        <v>0.21550261818718</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6179549957955049</v>
+        <v>0.220106719730091</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0705128205128205</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H34" t="n">
-        <v>0.846153846153846</v>
+        <v>0.9428571428571429</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9197</v>
+        <v>1.0672</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0032083161566513</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0123182062389696</v>
+        <v>-0.0051169186085797</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0052500062071327</v>
+        <v>0.0142360776274651</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.300629325023552</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999988867425498</v>
+        <v>0.190666142157487</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.587209302325581</v>
+        <v>0.8171428571428569</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.45</v>
+        <v>1.48</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0334673052894628</v>
+        <v>0.0089302815182457</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0203306530882488</v>
+        <v>-0.0078993340554247</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0459876188379838</v>
+        <v>0.0226224595836016</v>
       </c>
       <c r="N35" t="n">
-        <v>0.449225574355205</v>
+        <v>0.603397399881472</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.713633717231575</v>
+        <v>2.72281914171588e-08</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0171428571428571</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.925714285714286</v>
+        <v>0.582857142857143</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.051</v>
+        <v>0.059</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0016928162486368</v>
+        <v>0.0024159183030084</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0123366012948533</v>
+        <v>0.0017106626689127</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0041945550146306</v>
+        <v>0.0033623422752008</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.161067197777056</v>
+        <v>4.09477678476012</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,46 +3731,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.682559984856524</v>
+        <v>0.488675645779783</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8114285714285711</v>
+        <v>0.851428571428571</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.41</v>
+        <v>3.39</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0028615009371703</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0158624822464699</v>
+        <v>-0.0550282365771204</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0102434824598305</v>
+        <v>0.0569220779220779</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.202943328877326</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangarangiora trib at ds Norsewood STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8.81688978279629e-06</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.594285714285714</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0021990968801313</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0014191875065116</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0031618699899272</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.49062996846248</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1874806.67707</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5557913.63477</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_1a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mangarangiora trib at ds Norsewood STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.738608769507487</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.85632183908046</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.355</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.0232027527792483</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.07813772016650861</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0379002316270162</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-0.691587266147489</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1874806.67707</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5557913.63477</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_1a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
+++ b/trend_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -130,52 +130,46 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -654,38 +648,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.137497872373145</v>
+        <v>0.0076981017678889</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.543478260869565</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="K2">
-        <v>-0.0724702380952381</v>
+        <v>-0.234803571428571</v>
       </c>
       <c r="L2">
-        <v>-0.240824175824176</v>
+        <v>-0.427216656885029</v>
       </c>
       <c r="M2">
-        <v>0.0307550576732429</v>
+        <v>-0.0701475836836597</v>
       </c>
       <c r="N2">
-        <v>-4.41891695702671</v>
+        <v>-14.6752232142857</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2">
         <v>1874806.67707</v>
       </c>
@@ -693,19 +687,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
         <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,37 +719,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.976730209576497</v>
+        <v>0.99979709045584</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.896551724137931</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.744999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="K3">
-        <v>0.097582762632105</v>
+        <v>0.165566620879121</v>
       </c>
       <c r="L3">
-        <v>0.012828011916656</v>
+        <v>0.122118927489057</v>
       </c>
       <c r="M3">
-        <v>0.170932622120542</v>
+        <v>0.276602882818797</v>
       </c>
       <c r="N3">
-        <v>1.00136236667116</v>
+        <v>1.6279903724594</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1874806.67707</v>
@@ -764,19 +758,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
         <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,37 +790,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.904783284765312</v>
+        <v>0.978416991048876</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.6610169491525421</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="K4">
-        <v>-0.0019089721254355</v>
+        <v>-0.0034215456674473</v>
       </c>
       <c r="L4">
-        <v>-0.0049755358536867</v>
+        <v>-0.0080787256015516</v>
       </c>
       <c r="M4">
-        <v>0.0003558450888018</v>
+        <v>-0.0007498258169074999</v>
       </c>
       <c r="N4">
-        <v>-6.36324041811847</v>
+        <v>-11.0372440885397</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1874806.67707</v>
@@ -835,19 +829,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,37 +861,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.885616323651192</v>
+        <v>0.600610030388552</v>
       </c>
       <c r="G5">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.847457627118644</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>689</v>
+        <v>638.4</v>
       </c>
       <c r="K5">
-        <v>-59.0700808625337</v>
+        <v>-16.3393469387755</v>
       </c>
       <c r="L5">
-        <v>-152.82787659161</v>
+        <v>-120.16243911424</v>
       </c>
       <c r="M5">
-        <v>20.0970609517731</v>
+        <v>85.8420863505839</v>
       </c>
       <c r="N5">
-        <v>-8.573306366115199</v>
+        <v>-2.55942151296609</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1874806.67707</v>
@@ -906,19 +900,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,37 +932,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.947215981690411</v>
+        <v>0.92469624476401</v>
       </c>
       <c r="G6">
-        <v>0.351851851851852</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0141342896051483</v>
+        <v>0.0112859557640207</v>
       </c>
       <c r="K6">
-        <v>-0.0009369495584218</v>
+        <v>-0.0016344245325192</v>
       </c>
       <c r="L6">
-        <v>-0.0036586442424996</v>
+        <v>-0.0040797600896871</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0001529618561469</v>
       </c>
       <c r="N6">
-        <v>-6.6289115661008</v>
+        <v>-14.4819328260152</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1874806.67707</v>
@@ -977,19 +971,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,13 +1003,13 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.98339378043181</v>
+        <v>0.9985942950482209</v>
       </c>
       <c r="G7">
-        <v>0.0677966101694915</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H7">
-        <v>0.23728813559322</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1024,19 +1018,19 @@
         <v>0.005</v>
       </c>
       <c r="K7">
-        <v>-0.0005550911854103</v>
+        <v>-0.0006337478311162</v>
       </c>
       <c r="L7">
-        <v>-0.0009235145385587</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0002623882334437</v>
       </c>
       <c r="N7">
-        <v>-11.1018237082067</v>
+        <v>-12.674956622325</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>45</v>
@@ -1048,19 +1042,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,34 +1074,34 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.041230749793399</v>
+        <v>0.014976027900479</v>
       </c>
       <c r="G8">
         <v>0.0338983050847458</v>
       </c>
       <c r="H8">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.06</v>
+        <v>0.974</v>
       </c>
       <c r="K8">
-        <v>0.123836702392258</v>
+        <v>0.0926746496257366</v>
       </c>
       <c r="L8">
-        <v>0.0006319609031852</v>
+        <v>0.0413470429441342</v>
       </c>
       <c r="M8">
-        <v>0.219345686977281</v>
+        <v>0.172139767093188</v>
       </c>
       <c r="N8">
-        <v>11.6827077728545</v>
+        <v>9.51485109093805</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
         <v>46</v>
@@ -1119,19 +1113,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,34 +1145,34 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0044342468495619</v>
+        <v>0.683122828175834</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.771929824561403</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>7.555</v>
       </c>
       <c r="K9">
-        <v>-0.08110973178520681</v>
+        <v>0.0125731497418247</v>
       </c>
       <c r="L9">
-        <v>-0.12637592796629</v>
+        <v>-0.0322781295275226</v>
       </c>
       <c r="M9">
-        <v>-0.0304475776055723</v>
+        <v>0.06403579372591681</v>
       </c>
       <c r="N9">
-        <v>-1.08146309046942</v>
+        <v>0.16642157169854</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
         <v>47</v>
@@ -1190,16 +1184,16 @@
         <v>5557913.63477</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,7 +1213,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0355984446376258</v>
+        <v>0.0057699942451294</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1231,26 +1225,26 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.1</v>
+        <v>1.051</v>
       </c>
       <c r="K10">
-        <v>0.111645217346198</v>
+        <v>0.0862953296703297</v>
       </c>
       <c r="L10">
-        <v>0.0031053535631452</v>
+        <v>0.032249285688047</v>
       </c>
       <c r="M10">
-        <v>0.216269679940277</v>
+        <v>0.176084496269484</v>
       </c>
       <c r="N10">
-        <v>10.1495652132907</v>
+        <v>8.21078303238151</v>
       </c>
       <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
         <v>40</v>
       </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
       <c r="Q10">
         <v>1874806.67707</v>
       </c>
@@ -1258,19 +1252,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" t="s">
         <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,34 +1284,34 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.096383983600694</v>
+        <v>0.281341927597306</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.864406779661017</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="K11">
-        <v>0.140185641564318</v>
+        <v>0.0375447578737052</v>
       </c>
       <c r="L11">
-        <v>-0.0356467526869699</v>
+        <v>-0.0554555834708975</v>
       </c>
       <c r="M11">
-        <v>0.188403736317151</v>
+        <v>0.144581039749964</v>
       </c>
       <c r="N11">
-        <v>9.47200280839987</v>
+        <v>2.62550754361575</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
         <v>48</v>
@@ -1329,19 +1323,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" t="s">
         <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,43 +1349,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.625710958390952</v>
+        <v>0.945543087710611</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.830508474576271</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.074</v>
+        <v>0.076</v>
       </c>
       <c r="K12">
-        <v>-0.001003434065934</v>
+        <v>-0.0060206043956043</v>
       </c>
       <c r="L12">
-        <v>-0.0097276524269996</v>
+        <v>-0.0193030194460778</v>
       </c>
       <c r="M12">
-        <v>0.0037552200262159</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-1.35599198099198</v>
+        <v>-7.92184788895315</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1874806.67707</v>
@@ -1400,19 +1394,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
         <v>57</v>
-      </c>
-      <c r="W12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0943133654803306</v>
+        <v>0.0439030317424818</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1444,25 +1438,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="K13">
-        <v>0.221363636363636</v>
+        <v>0.337626050420168</v>
       </c>
       <c r="L13">
-        <v>-0.0639141102557637</v>
+        <v>0.003366169487582</v>
       </c>
       <c r="M13">
-        <v>0.526910645861479</v>
+        <v>0.671215077114776</v>
       </c>
       <c r="N13">
-        <v>6.76953016402558</v>
+        <v>9.430895263133181</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1874806.67707</v>
@@ -1471,19 +1465,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,13 +1497,13 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.990743350239378</v>
+        <v>0.855724745341672</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.44578313253012</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1518,22 +1512,22 @@
         <v>1.5</v>
       </c>
       <c r="K14">
-        <v>0.06311923963133639</v>
+        <v>0.035394792834309</v>
       </c>
       <c r="L14">
-        <v>0.0161143632691237</v>
+        <v>-0.0202268640519164</v>
       </c>
       <c r="M14">
-        <v>0.105767374517375</v>
+        <v>0.095612341745772</v>
       </c>
       <c r="N14">
-        <v>4.20794930875576</v>
+        <v>2.3596528556206</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1874806.67707</v>
@@ -1542,19 +1536,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
         <v>56</v>
-      </c>
-      <c r="V14" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1568,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.970808686569576</v>
+        <v>0.997293870432144</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.870689655172414</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.73</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="K15">
-        <v>0.0350079872204471</v>
+        <v>0.0546632653061222</v>
       </c>
       <c r="L15">
-        <v>0.0029344171566801</v>
+        <v>0.0150794369152279</v>
       </c>
       <c r="M15">
-        <v>0.0643107618136485</v>
+        <v>0.0927523785047031</v>
       </c>
       <c r="N15">
-        <v>0.359794318812406</v>
+        <v>0.559787663145132</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15">
         <v>1874806.67707</v>
@@ -1613,19 +1607,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" t="s">
         <v>57</v>
-      </c>
-      <c r="W15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,7 +1639,7 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0007523612334363</v>
+        <v>0.0938446686503543</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1657,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="K16">
-        <v>0.0014955641492265</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L16">
-        <v>0.000664695177434</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0023990147783251</v>
+        <v>0.0016790601154422</v>
       </c>
       <c r="N16">
-        <v>5.53912647861692</v>
+        <v>1.79184654631083</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1874806.67707</v>
@@ -1684,19 +1678,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,37 +1710,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.10437210439089</v>
+        <v>0.0173777921798081</v>
       </c>
       <c r="G17">
-        <v>0.008547008547008499</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17">
-        <v>0.7435897435897439</v>
+        <v>0.767241379310345</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>570</v>
+        <v>588.4</v>
       </c>
       <c r="K17">
-        <v>12.1694431766317</v>
+        <v>20.3456171131655</v>
       </c>
       <c r="L17">
-        <v>-4.25303663448523</v>
+        <v>4.32092395184271</v>
       </c>
       <c r="M17">
-        <v>38.4962673428587</v>
+        <v>57.9600668323966</v>
       </c>
       <c r="N17">
-        <v>2.13499003098801</v>
+        <v>3.45778672895403</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1874806.67707</v>
@@ -1755,19 +1749,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,19 +1781,19 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0071925396405302</v>
+        <v>0.0727098118243511</v>
       </c>
       <c r="G18">
-        <v>0.486238532110092</v>
+        <v>0.490909090909091</v>
       </c>
       <c r="H18">
-        <v>0.513761467889908</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0109878964747085</v>
+        <v>0.0108189940615349</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1808,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0003939703127389</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1874806.67707</v>
@@ -1826,19 +1820,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,37 +1852,37 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.808633455557387</v>
+        <v>0.998483528444618</v>
       </c>
       <c r="G19">
-        <v>0.0854700854700855</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H19">
-        <v>0.188034188034188</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="L19">
-        <v>-0.0003328789541445</v>
+        <v>-0.0005388688096904</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-6.66818804198996</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1874806.67707</v>
@@ -1897,19 +1891,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,37 +1923,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0295905880817332</v>
+        <v>0.0987517181377415</v>
       </c>
       <c r="G20">
-        <v>0.0683760683760684</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="H20">
-        <v>0.863247863247863</v>
+        <v>0.88034188034188</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.06</v>
+        <v>0.956</v>
       </c>
       <c r="K20">
-        <v>0.0132939035486806</v>
+        <v>0.008488380041011601</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0021814626202292</v>
       </c>
       <c r="M20">
-        <v>0.0401211002195622</v>
+        <v>0.0307472931712109</v>
       </c>
       <c r="N20">
-        <v>1.25414184421515</v>
+        <v>0.887905862030504</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1874806.67707</v>
@@ -1968,19 +1962,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,37 +1994,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.414664675287951</v>
+        <v>0.923477702233509</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6052631578947369</v>
+        <v>0.6</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.47</v>
+        <v>7.52</v>
       </c>
       <c r="K21">
-        <v>-0.0015346638655463</v>
+        <v>0.0112615621788283</v>
       </c>
       <c r="L21">
-        <v>-0.0176424720559609</v>
+        <v>-0.0015625948230188</v>
       </c>
       <c r="M21">
-        <v>0.0120812880511531</v>
+        <v>0.0245855042542134</v>
       </c>
       <c r="N21">
-        <v>-0.0205443623232439</v>
+        <v>0.149754816207823</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1874806.67707</v>
@@ -2039,16 +2033,16 @@
         <v>5557913.63477</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,7 +2062,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0106517474895753</v>
+        <v>0.0780205991298034</v>
       </c>
       <c r="G22">
         <v>0.0256410256410256</v>
@@ -2080,25 +2074,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.1</v>
+        <v>1.051</v>
       </c>
       <c r="K22">
-        <v>0.0180618131868132</v>
+        <v>0.0113722527472527</v>
       </c>
       <c r="L22">
-        <v>0.0029994336085275</v>
+        <v>-0.0012096693017786</v>
       </c>
       <c r="M22">
-        <v>0.0420613714323955</v>
+        <v>0.0321194068741915</v>
       </c>
       <c r="N22">
-        <v>1.64198301698302</v>
+        <v>1.08204117480996</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1874806.67707</v>
@@ -2107,19 +2101,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" t="s">
         <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2133,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.181671650871494</v>
+        <v>0.563722537148979</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.871794871794872</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="K23">
-        <v>0.0164774436090225</v>
+        <v>-0.0016670470104974</v>
       </c>
       <c r="L23">
-        <v>-0.0088576911611025</v>
+        <v>-0.0350579867420164</v>
       </c>
       <c r="M23">
-        <v>0.0450102692834322</v>
+        <v>0.0199975168156662</v>
       </c>
       <c r="N23">
-        <v>1.09122143106109</v>
+        <v>-0.11576715350677</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1874806.67707</v>
@@ -2178,19 +2172,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" t="s">
         <v>57</v>
-      </c>
-      <c r="W23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,37 +2204,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.001495209605213</v>
+        <v>0.010636258006282</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.692307692307692</v>
+        <v>0.709401709401709</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K24">
-        <v>0.0019877551020408</v>
+        <v>0.0016723901098901</v>
       </c>
       <c r="L24">
-        <v>0.0008805295747428</v>
+        <v>0.0006522507362927</v>
       </c>
       <c r="M24">
-        <v>0.0031989129216106</v>
+        <v>0.0029836272419313</v>
       </c>
       <c r="N24">
-        <v>2.8396501457726</v>
+        <v>2.35547902801424</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1874806.67707</v>
@@ -2249,19 +2243,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" t="s">
         <v>57</v>
-      </c>
-      <c r="W24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,44 +2269,44 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.139259651145687</v>
+        <v>0.0022985997989645</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.897435897435897</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="K25">
-        <v>0.0588773306525407</v>
+        <v>0.15051510989011</v>
       </c>
       <c r="L25">
-        <v>-0.0334428359197997</v>
+        <v>0.0770005293294671</v>
       </c>
       <c r="M25">
-        <v>0.158288978062393</v>
+        <v>0.217705568051721</v>
       </c>
       <c r="N25">
-        <v>1.86912160801717</v>
+        <v>4.50644041587156</v>
       </c>
       <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="P25" t="s">
-        <v>41</v>
-      </c>
       <c r="Q25">
         <v>1874806.67707</v>
       </c>
@@ -2320,19 +2314,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>0.411659911191074</v>
+        <v>0.235097748035224</v>
       </c>
       <c r="G26">
-        <v>0.007874015748031499</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H26">
-        <v>0.346456692913386</v>
+        <v>0.38655462184874</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2367,22 +2361,22 @@
         <v>1.5</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0103528911564626</v>
       </c>
       <c r="L26">
-        <v>-0.0288950288323456</v>
+        <v>-0.0401615923330647</v>
       </c>
       <c r="M26">
-        <v>0.0174478603877057</v>
+        <v>0.012027239144947</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-0.6901927437641729</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1874806.67707</v>
@@ -2391,19 +2385,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V26" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" t="s">
         <v>56</v>
-      </c>
-      <c r="V26" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,40 +2414,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>0.494042097298487</v>
+        <v>0.910571418492274</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.862068965517241</v>
+        <v>0.85632183908046</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.835000000000001</v>
+        <v>9.875</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.0158377580823173</v>
       </c>
       <c r="L27">
-        <v>-0.0261811321931144</v>
+        <v>-0.0043044680196905</v>
       </c>
       <c r="M27">
-        <v>0.02210177462693</v>
+        <v>0.0422870567415813</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.160382360327263</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1874806.67707</v>
@@ -2462,19 +2456,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" t="s">
         <v>57</v>
-      </c>
-      <c r="W27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,13 +2488,13 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>1.58536031015384E-08</v>
+        <v>4.70062011080296E-09</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.411428571428571</v>
+        <v>0.417142857142857</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2509,23 +2503,23 @@
         <v>0.025</v>
       </c>
       <c r="K28">
-        <v>0.001497949419002</v>
+        <v>0.0015725048923679</v>
       </c>
       <c r="L28">
-        <v>0.0010812078358096</v>
+        <v>0.0010883872049605</v>
       </c>
       <c r="M28">
-        <v>0.0019972658920027</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="N28">
-        <v>5.9917976760082</v>
+        <v>6.29001956947162</v>
       </c>
       <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s">
         <v>40</v>
       </c>
-      <c r="P28" t="s">
-        <v>51</v>
-      </c>
       <c r="Q28">
         <v>1874806.67707</v>
       </c>
@@ -2533,19 +2527,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,37 +2559,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.224602864241227</v>
+        <v>0.115694609490748</v>
       </c>
       <c r="G29">
-        <v>0.0057142857142857</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H29">
-        <v>0.76</v>
+        <v>0.78735632183908</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>554</v>
+        <v>578.4</v>
       </c>
       <c r="K29">
-        <v>5.60171283710039</v>
+        <v>9.48182031433263</v>
       </c>
       <c r="L29">
-        <v>-5.00798442307491</v>
+        <v>-3.97871237125807</v>
       </c>
       <c r="M29">
-        <v>20.9324603749331</v>
+        <v>23.3212814154673</v>
       </c>
       <c r="N29">
-        <v>1.01113950128166</v>
+        <v>1.63931886485696</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1874806.67707</v>
@@ -2604,19 +2598,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,22 +2627,22 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.707474135824239</v>
+        <v>0.759829658148709</v>
       </c>
       <c r="G30">
-        <v>0.409638554216867</v>
+        <v>0.439759036144578</v>
       </c>
       <c r="H30">
-        <v>0.5783132530120479</v>
+        <v>0.55421686746988</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0120345974927957</v>
+        <v>0.0114355069277308</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2663,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q30">
         <v>1874806.67707</v>
@@ -2675,19 +2669,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>0.111176325338339</v>
+        <v>0.664240424471282</v>
       </c>
       <c r="G31">
-        <v>0.133333333333333</v>
+        <v>0.131428571428571</v>
       </c>
       <c r="H31">
-        <v>0.139393939393939</v>
+        <v>0.131428571428571</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2722,22 +2716,22 @@
         <v>0.005</v>
       </c>
       <c r="K31">
-        <v>9.090343454454949E-05</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.0001212307689895</v>
       </c>
       <c r="M31">
-        <v>0.0001991548527808</v>
+        <v>3.78102999631051E-05</v>
       </c>
       <c r="N31">
-        <v>1.81806869089099</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q31">
         <v>1874806.67707</v>
@@ -2746,19 +2740,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2772,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.131038782633689</v>
+        <v>0.223615950610621</v>
       </c>
       <c r="G32">
-        <v>0.06666666666666669</v>
+        <v>0.0628571428571429</v>
       </c>
       <c r="H32">
-        <v>0.842424242424242</v>
+        <v>0.845714285714286</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.974</v>
+        <v>0.956</v>
       </c>
       <c r="K32">
-        <v>0.0045010269283432</v>
+        <v>0.0024505452501392</v>
       </c>
       <c r="L32">
-        <v>-0.0018197363196736</v>
+        <v>-0.0039714091550814</v>
       </c>
       <c r="M32">
-        <v>0.0172861096749748</v>
+        <v>0.0130687732147285</v>
       </c>
       <c r="N32">
-        <v>0.462117754450023</v>
+        <v>0.256333185161006</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1874806.67707</v>
@@ -2817,19 +2811,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.993892185415876</v>
+        <v>0.911431481432848</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.546511627906977</v>
+        <v>0.505813953488372</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.45</v>
+        <v>7.51</v>
       </c>
       <c r="K33">
-        <v>0.0160549450549449</v>
+        <v>0.0074313403457354</v>
       </c>
       <c r="L33">
-        <v>0.0055325946412789</v>
+        <v>-0.0014078401209765</v>
       </c>
       <c r="M33">
-        <v>0.0288098254398229</v>
+        <v>0.0161598449378903</v>
       </c>
       <c r="N33">
-        <v>0.21550261818718</v>
+        <v>0.0989526011416173</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q33">
         <v>1874806.67707</v>
@@ -2888,16 +2882,16 @@
         <v>5557913.63477</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,37 +2911,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.220106719730091</v>
+        <v>0.186578245159964</v>
       </c>
       <c r="G34">
         <v>0.0171428571428571</v>
       </c>
       <c r="H34">
-        <v>0.9428571428571429</v>
+        <v>0.9371428571428571</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1.0672</v>
+        <v>1.08</v>
       </c>
       <c r="K34">
-        <v>0.0032083161566513</v>
+        <v>0.0039510216346153</v>
       </c>
       <c r="L34">
-        <v>-0.0051169186085797</v>
+        <v>-0.0041043366591972</v>
       </c>
       <c r="M34">
-        <v>0.0142360776274651</v>
+        <v>0.0141113401571747</v>
       </c>
       <c r="N34">
-        <v>0.300629325023552</v>
+        <v>0.365835336538462</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1874806.67707</v>
@@ -2956,19 +2950,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" t="s">
         <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,37 +2982,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.190666142157487</v>
+        <v>0.423520806241188</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.8171428571428569</v>
+        <v>0.8114285714285711</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="K35">
-        <v>0.0089302815182457</v>
+        <v>0.0015450161357193</v>
       </c>
       <c r="L35">
-        <v>-0.0078993340554247</v>
+        <v>-0.0139014519902935</v>
       </c>
       <c r="M35">
-        <v>0.0226224595836016</v>
+        <v>0.0163767649123158</v>
       </c>
       <c r="N35">
-        <v>0.603397399881472</v>
+        <v>0.107292787202731</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q35">
         <v>1874806.67707</v>
@@ -3027,19 +3021,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" t="s">
         <v>57</v>
-      </c>
-      <c r="W35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,13 +3053,13 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>2.72281914171588E-08</v>
+        <v>1.38535581146576E-08</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.582857142857143</v>
+        <v>0.594285714285714</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3074,23 +3068,23 @@
         <v>0.059</v>
       </c>
       <c r="K36">
-        <v>0.0024159183030084</v>
+        <v>0.0026214114832535</v>
       </c>
       <c r="L36">
-        <v>0.0017106626689127</v>
+        <v>0.0018584148727984</v>
       </c>
       <c r="M36">
-        <v>0.0033623422752008</v>
+        <v>0.0036110913725115</v>
       </c>
       <c r="N36">
-        <v>4.09477678476012</v>
+        <v>4.4430703105993</v>
       </c>
       <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
         <v>40</v>
       </c>
-      <c r="P36" t="s">
-        <v>51</v>
-      </c>
       <c r="Q36">
         <v>1874806.67707</v>
       </c>
@@ -3098,19 +3092,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" t="s">
         <v>57</v>
-      </c>
-      <c r="W36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,40 +3121,40 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>0.488675645779783</v>
+        <v>0.173420950408382</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.851428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.0354904899731238</v>
       </c>
       <c r="L37">
-        <v>-0.0550282365771204</v>
+        <v>-0.0256961131300355</v>
       </c>
       <c r="M37">
-        <v>0.0569220779220779</v>
+        <v>0.0921377979256468</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1.03470816248174</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1874806.67707</v>
@@ -3169,19 +3163,19 @@
         <v>5557913.63477</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
